--- a/data/hotels_by_city/Houston/Houston_shard_205.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_205.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108151-Reviews-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Econo-Lodge-Houston-Hobby.h56782.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,503 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r550763879-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108151</t>
+  </si>
+  <si>
+    <t>550763879</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>AVOID</t>
+  </si>
+  <si>
+    <t>We arrived for our reservation early, having just flown in on a red eye to Houston Hobby airport, to find that there was no room ready for us, to get some rest. No problem, we opted to take the rental car to a restaurant in downtown Houston for brunch. We got back, 2pm, and checked into our room, number 206, 1 king bed, non-smoking. To say the least, we found it less than desirable. See my pictures. Upon entering the room our first welcome was the smell, the intense odor of cleaning products. The smell never dissipated the entire 16 hours we were in there. And soon after we discovered that the bed covers were stained, the refrigerator had not been cleaned out from a previous tenant's stay, the freezer hadn't been cleaned in who knows how long, and the previous tenant's used toiletries were still in the shower cubbyhole used for soap. And the worst part is, we had prepaid for this room months earlier, no refunds allowed, simply wanting a room near the airport to connect with our next flight after a 24 hour layover, and we had thought to ourselves, how bad could it be? Well, for me this was the worst motel stay in 61 years of life on this planet, and that includes terrible Motel 6 experiences in the southwestern united states. Avoid this place at all cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>We arrived for our reservation early, having just flown in on a red eye to Houston Hobby airport, to find that there was no room ready for us, to get some rest. No problem, we opted to take the rental car to a restaurant in downtown Houston for brunch. We got back, 2pm, and checked into our room, number 206, 1 king bed, non-smoking. To say the least, we found it less than desirable. See my pictures. Upon entering the room our first welcome was the smell, the intense odor of cleaning products. The smell never dissipated the entire 16 hours we were in there. And soon after we discovered that the bed covers were stained, the refrigerator had not been cleaned out from a previous tenant's stay, the freezer hadn't been cleaned in who knows how long, and the previous tenant's used toiletries were still in the shower cubbyhole used for soap. And the worst part is, we had prepaid for this room months earlier, no refunds allowed, simply wanting a room near the airport to connect with our next flight after a 24 hour layover, and we had thought to ourselves, how bad could it be? Well, for me this was the worst motel stay in 61 years of life on this planet, and that includes terrible Motel 6 experiences in the southwestern united states. Avoid this place at all cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r526426242-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526426242</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>good last-minute grab</t>
+  </si>
+  <si>
+    <t>good location near Hobby, good staff who know what they are doing. very courteous and careful owner. property very well maintained, room spic and span, very comfortable bed. good place to hang out when i decided at last minute to get a hotel room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>good location near Hobby, good staff who know what they are doing. very courteous and careful owner. property very well maintained, room spic and span, very comfortable bed. good place to hang out when i decided at last minute to get a hotel room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r516270408-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516270408</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Average - good price</t>
+  </si>
+  <si>
+    <t>Well priced motel near Houston Hobby Airport.  No frills. Had a problem when pipe burst in room next to mine.  I was on the job when it happened and hotel management moved me to another room.  Wi-fi was up and down but am finding that at a lot of the smaller hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Well priced motel near Houston Hobby Airport.  No frills. Had a problem when pipe burst in room next to mine.  I was on the job when it happened and hotel management moved me to another room.  Wi-fi was up and down but am finding that at a lot of the smaller hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r500416217-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500416217</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>the room was very comfortable very nice staff he was very helpful, had no problem, got a very good deal for a last minute stay needed a room at the last minute. I was looking for a hotel room and look online and the front desk clerk help me out..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>the room was very comfortable very nice staff he was very helpful, had no problem, got a very good deal for a last minute stay needed a room at the last minute. I was looking for a hotel room and look online and the front desk clerk help me out..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r495273178-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495273178</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>The rooms were large, the bed and pillows were exceptional, the room and all of the hotel were very clean and well kept! Thank you all for doing such a great job. Would definitely stay again.The staff checked on us, allowed us to stay an extra hour so we could complete unexpected tasks at no additional charge.Would book again.MoreShow less</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>The rooms were large, the bed and pillows were exceptional, the room and all of the hotel were very clean and well kept! Thank you all for doing such a great job. Would definitely stay again.The staff checked on us, allowed us to stay an extra hour so we could complete unexpected tasks at no additional charge.Would book again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r489484417-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489484417</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>good stay for South Houston</t>
+  </si>
+  <si>
+    <t>the first night there was noise in the middle of the night.  second night was quiet.  this is a good space, convenient location, rooms are rather dark, breakfast waffle &amp; coffee were tasty.i will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>the first night there was noise in the middle of the night.  second night was quiet.  this is a good space, convenient location, rooms are rather dark, breakfast waffle &amp; coffee were tasty.i will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r458798955-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458798955</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Property was a bit tired but clean.  Non-smoking room's bedspread had burn holes. Tub was clean but had large chips.  Area/parking lot was very high traffic &amp; noisy throughout the night.  Just slightly outside the 'nicer' area.  Convenient to the airport but if I had occasion to spend a night close to the airport again, I'd probably find a different Choice property.  Shuttle service is not available around the clock, if you need to get to the airport for a very late night or early morning flight you'll need to call a cab or Uber.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Property was a bit tired but clean.  Non-smoking room's bedspread had burn holes. Tub was clean but had large chips.  Area/parking lot was very high traffic &amp; noisy throughout the night.  Just slightly outside the 'nicer' area.  Convenient to the airport but if I had occasion to spend a night close to the airport again, I'd probably find a different Choice property.  Shuttle service is not available around the clock, if you need to get to the airport for a very late night or early morning flight you'll need to call a cab or Uber.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r447922798-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447922798</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>great inexpensive airport hotel</t>
+  </si>
+  <si>
+    <t>The staff was friendly, and made the check-in process quick and easy. The room was large and clean. Overall, the property was quiet, pleasant and comfortable. As I did not encounter any problems, I would stay here again when traveling to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>The staff was friendly, and made the check-in process quick and easy. The room was large and clean. Overall, the property was quiet, pleasant and comfortable. As I did not encounter any problems, I would stay here again when traveling to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r434449607-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434449607</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Bias, prejudice, ignorance?</t>
+  </si>
+  <si>
+    <t>It's a few days before the Presidential election and I had to rent a room before my trip to Atlanta where I will watch the results with my brother.  I reserve a room and was told that the only room avalible is second floor. I mentioned that my suitcase was fifty pounds and it would be a hardship to haul up stairs. 
+Hotel is usually empty during the week, so I was surprised at ultimatum, no other room avalible?
+Didn't matter, if I wanted room at internet price, I had to rent upstairs. I had just gotten in from where I delivered a truck to Portland and I wasn't ready to go motel hunting again. 
+Eight hours later, it is like ten O' clock PM and I see one car in parking lot. There has only been one car in lot for entire evening
+I am sixty three years old, with bad knee, an irregular heart beat, and a history of high blood pressure. I was well groomed, dressed in clean clothes, but perhaps too casual for management, when I walked in lobby to rent. Suggest you not rent room if in shorts and tee shirt? 
+Have no idea why this establishment is so obviously prejudiced?
+Room is nice, have no issues other than channel 21 has no sound. I usually watch Seinfeld to relax but even that doesn't work here. If you wwould like a miserable stay at a...It's a few days before the Presidential election and I had to rent a room before my trip to Atlanta where I will watch the results with my brother.  I reserve a room and was told that the only room avalible is second floor. I mentioned that my suitcase was fifty pounds and it would be a hardship to haul up stairs. Hotel is usually empty during the week, so I was surprised at ultimatum, no other room avalible?Didn't matter, if I wanted room at internet price, I had to rent upstairs. I had just gotten in from where I delivered a truck to Portland and I wasn't ready to go motel hunting again. Eight hours later, it is like ten O' clock PM and I see one car in parking lot. There has only been one car in lot for entire eveningI am sixty three years old, with bad knee, an irregular heart beat, and a history of high blood pressure. I was well groomed, dressed in clean clothes, but perhaps too casual for management, when I walked in lobby to rent. Suggest you not rent room if in shorts and tee shirt? Have no idea why this establishment is so obviously prejudiced?Room is nice, have no issues other than channel 21 has no sound. I usually watch Seinfeld to relax but even that doesn't work here. If you wwould like a miserable stay at a motel, perhaps you should give this place a stay?MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>It's a few days before the Presidential election and I had to rent a room before my trip to Atlanta where I will watch the results with my brother.  I reserve a room and was told that the only room avalible is second floor. I mentioned that my suitcase was fifty pounds and it would be a hardship to haul up stairs. 
+Hotel is usually empty during the week, so I was surprised at ultimatum, no other room avalible?
+Didn't matter, if I wanted room at internet price, I had to rent upstairs. I had just gotten in from where I delivered a truck to Portland and I wasn't ready to go motel hunting again. 
+Eight hours later, it is like ten O' clock PM and I see one car in parking lot. There has only been one car in lot for entire evening
+I am sixty three years old, with bad knee, an irregular heart beat, and a history of high blood pressure. I was well groomed, dressed in clean clothes, but perhaps too casual for management, when I walked in lobby to rent. Suggest you not rent room if in shorts and tee shirt? 
+Have no idea why this establishment is so obviously prejudiced?
+Room is nice, have no issues other than channel 21 has no sound. I usually watch Seinfeld to relax but even that doesn't work here. If you wwould like a miserable stay at a...It's a few days before the Presidential election and I had to rent a room before my trip to Atlanta where I will watch the results with my brother.  I reserve a room and was told that the only room avalible is second floor. I mentioned that my suitcase was fifty pounds and it would be a hardship to haul up stairs. Hotel is usually empty during the week, so I was surprised at ultimatum, no other room avalible?Didn't matter, if I wanted room at internet price, I had to rent upstairs. I had just gotten in from where I delivered a truck to Portland and I wasn't ready to go motel hunting again. Eight hours later, it is like ten O' clock PM and I see one car in parking lot. There has only been one car in lot for entire eveningI am sixty three years old, with bad knee, an irregular heart beat, and a history of high blood pressure. I was well groomed, dressed in clean clothes, but perhaps too casual for management, when I walked in lobby to rent. Suggest you not rent room if in shorts and tee shirt? Have no idea why this establishment is so obviously prejudiced?Room is nice, have no issues other than channel 21 has no sound. I usually watch Seinfeld to relax but even that doesn't work here. If you wwould like a miserable stay at a motel, perhaps you should give this place a stay?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r383984178-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383984178</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Clean, roomy, quiet and a great price!</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and really enjoyed it.  We picked this place due to price and being less than 40 minutes to Galveston.  It's also close to shopping outlets, movies and restaurants galore!  Check in and out was quick and friendly.  Room was spacious and clean with coffee maker, iron and board, flat screen with cable, desk, tables, chairs, dresser and a very comfortable huge king bed.  We had a corner room and never heard a sound from other guests.  A/C, microwave, fridge and shower all worked great!  Wifi too!  We really have nothing bad to say!  Yes, as other mentioned, there is a strong smell of cleaner (possibly Fabuloso), but it wasn't unbearable and atleast we know they cleaned!  Area felt safe and there is a convenience store within a minutes walk.  Will absolutely stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights and really enjoyed it.  We picked this place due to price and being less than 40 minutes to Galveston.  It's also close to shopping outlets, movies and restaurants galore!  Check in and out was quick and friendly.  Room was spacious and clean with coffee maker, iron and board, flat screen with cable, desk, tables, chairs, dresser and a very comfortable huge king bed.  We had a corner room and never heard a sound from other guests.  A/C, microwave, fridge and shower all worked great!  Wifi too!  We really have nothing bad to say!  Yes, as other mentioned, there is a strong smell of cleaner (possibly Fabuloso), but it wasn't unbearable and atleast we know they cleaned!  Area felt safe and there is a convenience store within a minutes walk.  Will absolutely stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r369685130-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369685130</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Ummm...</t>
+  </si>
+  <si>
+    <t>I will start with the good! The man who checked us in was excellent. He corrected an error on the booking and even found a room for us a couple of hours early. I truly appreciate his actions and commend him for that!The room we were on has fairly recently been remodeled. It was evident that the paint was new but the contractor got paint on the tub, the bathroom floor, and also missed some spots. The remodel did NOT include furniture. The desk, the TV stand, the table and even the headboard had scratches and chunks taken out. There was a replacement shelf in the bathroom that was just wood. No paint at all. The shower head was gross! It has never been cleaned! There is scum all over the jets. The back cover plate at the wall is very rusted. I wii attach photos of these things.Even though it was a cheaper price, I don't think I would ever stay here again. Just not a good feeling with this place. I have stayed at so many Choice Hotels, and I think it is safe to say this is the worst facility I have seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I will start with the good! The man who checked us in was excellent. He corrected an error on the booking and even found a room for us a couple of hours early. I truly appreciate his actions and commend him for that!The room we were on has fairly recently been remodeled. It was evident that the paint was new but the contractor got paint on the tub, the bathroom floor, and also missed some spots. The remodel did NOT include furniture. The desk, the TV stand, the table and even the headboard had scratches and chunks taken out. There was a replacement shelf in the bathroom that was just wood. No paint at all. The shower head was gross! It has never been cleaned! There is scum all over the jets. The back cover plate at the wall is very rusted. I wii attach photos of these things.Even though it was a cheaper price, I don't think I would ever stay here again. Just not a good feeling with this place. I have stayed at so many Choice Hotels, and I think it is safe to say this is the worst facility I have seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r340989178-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340989178</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE. DIRTY. DON'T EVEN CONSIDER THIS PLACE!</t>
+  </si>
+  <si>
+    <t>Not even sure where to begin...
+We entered the driveway and there's a steep incline that badly scraped the bottom of our new car.  There's no reason for it to be that steep. 
+We only booked a room for this night to get a quick shower &amp; nap before an early flight.  So I thought 'why not use my choice points for a free stay?' 
+The blankets on both beds were visibly DIRTY with cigarette burns on them (in a non smoking room) - don't even want to know what would show up under a black light.  The thinner blankets underneath those were also questionable.  
+We covered up only with sheets.
+All furniture was heavily coated with thick, greasy furniture polish.  Really gross!  I had to put towels on the table, desk &amp; dresser just to put our bags down.  
+Now lets talk about the shower.  When you turn the light on, the vent automatically comes on too.  It was L O U D!  Like, ridiculously LOUD.  My husband took his shower first and OMG the terrible sound that came out of that shower head resembled something you might see on a horror flick.  I even recorded video on my phone from outside the bathroom door b/c there's no way to explain how awful the sound is without audio proof.  Shower didn't look clean.  Bathroom floor wasn't clean.
+When it was time for my shower (which I debated) the sounds...Not even sure where to begin...We entered the driveway and there's a steep incline that badly scraped the bottom of our new car.  There's no reason for it to be that steep. We only booked a room for this night to get a quick shower &amp; nap before an early flight.  So I thought 'why not use my choice points for a free stay?' The blankets on both beds were visibly DIRTY with cigarette burns on them (in a non smoking room) - don't even want to know what would show up under a black light.  The thinner blankets underneath those were also questionable.  We covered up only with sheets.All furniture was heavily coated with thick, greasy furniture polish.  Really gross!  I had to put towels on the table, desk &amp; dresser just to put our bags down.  Now lets talk about the shower.  When you turn the light on, the vent automatically comes on too.  It was L O U D!  Like, ridiculously LOUD.  My husband took his shower first and OMG the terrible sound that came out of that shower head resembled something you might see on a horror flick.  I even recorded video on my phone from outside the bathroom door b/c there's no way to explain how awful the sound is without audio proof.  Shower didn't look clean.  Bathroom floor wasn't clean.When it was time for my shower (which I debated) the sounds from both the vent AND shower head readily gave me a pounding headache.  I would have preferred getting on the plane dirty.Also, whatever procedure they use there to wash the bathroom linens needs to be looked at by the health department.  I had RASHES on my body from using their washrag.   HELLO.....RASHES!  (which isn't fun to deal with on vacation people!!!)I'm gonna guess they probably use the guest rags with the cleaning chemicals to "clean" the rooms.  And then, the linens don't get washed thoroughly enough.  No, I don't have overly sensitive skin, and nothing like this has ever happened to me before.  This incident is specific to this nasty hotel.I also noticed the mattresses moved a lot, even if barely bumped.  So I investigated.  There is no box-spring, only a thin crappy mattress sitting on a shoddy platform thing made of plywood &amp; painted.  I got to "nap" for an hour and my back was killing me.  Sleeping in our car would've been more comfortable.So, 4:30am comes and it's time to get to the airport.  I think "hmmm...coffee would be nice"  There was a cheapo mini Keurig knockoff available.  I tried to make a cup of coffee.  It was DIRTY.  There was coffee spilled all over the outside.  I wiped it down, desperate for some caffeine.  The water came out with big brown chunks.  WTH??!!  This place is so bad it should be shut down.  Seriously.  Someone from the Texas Health Department would have their work cut out for them upon a visitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Not even sure where to begin...
+We entered the driveway and there's a steep incline that badly scraped the bottom of our new car.  There's no reason for it to be that steep. 
+We only booked a room for this night to get a quick shower &amp; nap before an early flight.  So I thought 'why not use my choice points for a free stay?' 
+The blankets on both beds were visibly DIRTY with cigarette burns on them (in a non smoking room) - don't even want to know what would show up under a black light.  The thinner blankets underneath those were also questionable.  
+We covered up only with sheets.
+All furniture was heavily coated with thick, greasy furniture polish.  Really gross!  I had to put towels on the table, desk &amp; dresser just to put our bags down.  
+Now lets talk about the shower.  When you turn the light on, the vent automatically comes on too.  It was L O U D!  Like, ridiculously LOUD.  My husband took his shower first and OMG the terrible sound that came out of that shower head resembled something you might see on a horror flick.  I even recorded video on my phone from outside the bathroom door b/c there's no way to explain how awful the sound is without audio proof.  Shower didn't look clean.  Bathroom floor wasn't clean.
+When it was time for my shower (which I debated) the sounds...Not even sure where to begin...We entered the driveway and there's a steep incline that badly scraped the bottom of our new car.  There's no reason for it to be that steep. We only booked a room for this night to get a quick shower &amp; nap before an early flight.  So I thought 'why not use my choice points for a free stay?' The blankets on both beds were visibly DIRTY with cigarette burns on them (in a non smoking room) - don't even want to know what would show up under a black light.  The thinner blankets underneath those were also questionable.  We covered up only with sheets.All furniture was heavily coated with thick, greasy furniture polish.  Really gross!  I had to put towels on the table, desk &amp; dresser just to put our bags down.  Now lets talk about the shower.  When you turn the light on, the vent automatically comes on too.  It was L O U D!  Like, ridiculously LOUD.  My husband took his shower first and OMG the terrible sound that came out of that shower head resembled something you might see on a horror flick.  I even recorded video on my phone from outside the bathroom door b/c there's no way to explain how awful the sound is without audio proof.  Shower didn't look clean.  Bathroom floor wasn't clean.When it was time for my shower (which I debated) the sounds from both the vent AND shower head readily gave me a pounding headache.  I would have preferred getting on the plane dirty.Also, whatever procedure they use there to wash the bathroom linens needs to be looked at by the health department.  I had RASHES on my body from using their washrag.   HELLO.....RASHES!  (which isn't fun to deal with on vacation people!!!)I'm gonna guess they probably use the guest rags with the cleaning chemicals to "clean" the rooms.  And then, the linens don't get washed thoroughly enough.  No, I don't have overly sensitive skin, and nothing like this has ever happened to me before.  This incident is specific to this nasty hotel.I also noticed the mattresses moved a lot, even if barely bumped.  So I investigated.  There is no box-spring, only a thin crappy mattress sitting on a shoddy platform thing made of plywood &amp; painted.  I got to "nap" for an hour and my back was killing me.  Sleeping in our car would've been more comfortable.So, 4:30am comes and it's time to get to the airport.  I think "hmmm...coffee would be nice"  There was a cheapo mini Keurig knockoff available.  I tried to make a cup of coffee.  It was DIRTY.  There was coffee spilled all over the outside.  I wiped it down, desperate for some caffeine.  The water came out with big brown chunks.  WTH??!!  This place is so bad it should be shut down.  Seriously.  Someone from the Texas Health Department would have their work cut out for them upon a visitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r311792902-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311792902</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Great staff, clean and quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and quiet! Andy was great at the front office. My wife and I Stayed two nights for business meetings with zero issues. Seems to be newly renovated, bathrooms had new fixtures and railings were freshly painted. For economy business travel or family travel highly recommend!!! </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r309019965-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309019965</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Not so PICTURE -perfect. Don't ask for extra toilet paper!</t>
+  </si>
+  <si>
+    <t>Picture and hotel rates are a bit deceiving. The area location of the hotel is not convenient nor easy on the eyes. The hotel is located in a poor part of town located across a gas station. Access to the freeway is good but don't miss your exit or you will find yourself driving around trying to find an outlet to the hotel. Hotel is smoking property. Smokers have own side of the building to themselves but I do believe they have the best side; it is located on the gated side of the property with easy pool access :(. Our rooms had a faint musky odor; either from dirty inside ac units or smoke from smoker's side of the property. No visible signs of smoke inside. I woke  up with a ROACH inside my room the next morning on my bed! It was small but was on my bed.I also asked housekeeping for a roll of TOILET paper and she did not want to give me a roll but finally gave me a roll after a list of questions asked. Not very polite. Overall, room was fair if you can handle slight odor of smoke and a chance of roaches in the room. BRING YOUR OWN ROLL OF TOILET PAPER!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Picture and hotel rates are a bit deceiving. The area location of the hotel is not convenient nor easy on the eyes. The hotel is located in a poor part of town located across a gas station. Access to the freeway is good but don't miss your exit or you will find yourself driving around trying to find an outlet to the hotel. Hotel is smoking property. Smokers have own side of the building to themselves but I do believe they have the best side; it is located on the gated side of the property with easy pool access :(. Our rooms had a faint musky odor; either from dirty inside ac units or smoke from smoker's side of the property. No visible signs of smoke inside. I woke  up with a ROACH inside my room the next morning on my bed! It was small but was on my bed.I also asked housekeeping for a roll of TOILET paper and she did not want to give me a roll but finally gave me a roll after a list of questions asked. Not very polite. Overall, room was fair if you can handle slight odor of smoke and a chance of roaches in the room. BRING YOUR OWN ROLL OF TOILET PAPER!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r275455342-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275455342</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Good Price. Clean. Quiet.</t>
+  </si>
+  <si>
+    <t>We recently stayed at this Econo Lodge when the plumbing in our one-bath Houston bungalow chose to indulge in a (thankfully, minor) nervous breakdown during a week of torrential rain. Hot, damp, and altogether grumpy, we arrived ready to find fault with the accommodations, given the hotel's rates. As it turned out, this was a very, very pleasant experience! Bed, floors, bathroom ... everything was clean. Mattress was wonderful. Microwave, refrigerator ... clean and functional. The front desk clerk was very serviceable and gracious. Everything was quiet. (We did not get a chance to try their breakfast, so cannot comment on that).</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r226727398-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226727398</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Good value. Fairly clean</t>
+  </si>
+  <si>
+    <t>Just the basics. Not bad if you are just staying over night. Pool was out of order which we weren't happy about, but it was just one night. You can tell this is used by a lot of out of town workers or locals. Not much around there, but as I said, it was just one night.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r213687363-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213687363</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>frequent traveler</t>
+  </si>
+  <si>
+    <t>This is by far my favorite place to stay.  The owners are wonderful, along with the staff.  I stayed longer than a week and they treated me like family and made sure I had everything I needed.  Housekeeping was good.  The location is good.  I can't wait to go back.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r203935773-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>203935773</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>GAG!</t>
+  </si>
+  <si>
+    <t>When my 11 year old walks in the room, and the first thing they ask is "Does this place have housekeeping?", you know the place is nasty.  The shower was filthy, the carpets were sticky when we walked on them in our bare feet, and the bedspread and linens had cigarette burns in them.....and it was a non smoking room.  We just needed a place to lay our heads for the night, and we just slept, then got up, took a shower with our flip flops on because of the nasty shower, and then left.  I booked this motel because the reviews were so good, but I think the positive reviews are made up.  The motel is just by the airport, which is nice.  If you want a clean and comfortable place to stay, spend a few more dollars.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>When my 11 year old walks in the room, and the first thing they ask is "Does this place have housekeeping?", you know the place is nasty.  The shower was filthy, the carpets were sticky when we walked on them in our bare feet, and the bedspread and linens had cigarette burns in them.....and it was a non smoking room.  We just needed a place to lay our heads for the night, and we just slept, then got up, took a shower with our flip flops on because of the nasty shower, and then left.  I booked this motel because the reviews were so good, but I think the positive reviews are made up.  The motel is just by the airport, which is nice.  If you want a clean and comfortable place to stay, spend a few more dollars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r175899729-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175899729</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>this hotel was able to accommodate  us family of  4 was an emergency  not enough time to reserve  however the online prices were honored  and management were very friendly  offered assistance right away   has a nice clean room  for 5 days  with bran new appliances great place to commute and shopping  with the comfort  of a awesome place to rest  and have the perfect night sleep .... may I need to add more ....zaida flores</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r163733461-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163733461</t>
+  </si>
+  <si>
+    <t>06/11/2013</t>
+  </si>
+  <si>
+    <t>Very clean place, well lit parking area</t>
+  </si>
+  <si>
+    <t>The hotel was very clean. Our room was large and we parked right outside our room.That was the one thing I did not like about the motel. All the room entrances were to the outside. Breakfast selection was very poor. The coffee was from a machine (like a vending machine but did not take money) and was not good coffee.  There were two trees in the parking area that were pretty much butchered as they had been severely pruned.  Beds were comfortable, had a good night's sleep. The value was OK but I would stay elsewhere next time I visit Houston.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r152183825-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152183825</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Great Econo Lodge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have low expectations when I have to stay in the Econo Lodge brand of Choice Hotels. I was pleasantly surprised by this property. Great value and great location if your headed out oh Hobby. The only disappointment was the breakfast set-up. Poor slections and bad presentation. Would it kill the franchise to put out equal or Splenda? </t>
   </si>
 </sst>
 </file>
@@ -532,11 +1038,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1070,1426 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>107</v>
+      </c>
+      <c r="X12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_205.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_205.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r587057281-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108151</t>
+  </si>
+  <si>
+    <t>587057281</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Worse than average EconoLodge</t>
+  </si>
+  <si>
+    <t>While doing a 3 month roadtrip, we've stayed in several EconoLodge motels and so can confidently report that this one is below standard. While everything in the room worked, it was obvious maintenance was lacking - wall tiles off bathroom wall, power point dangerously loose in wall, toilet cemented in place with a lack of neatness, and a cockroach infestation (3 sighted in our room over 3 days).The owners, Choice Hotels, should review this franchise.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r558997556-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558997556</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wouldn't recommend this ... </t>
+  </si>
+  <si>
+    <t>I wouldn't suggest this place. I booked online as i usually do,  going by pictures and reviews.  For the price,  it seemed good so i booked. When i got there,  i noticed a strip club right in front of the property,  not good for a quiet night.  The place was dirty and people,  who looked homeless were hanging out,  in the lobby and outside. The awning says its 12 feet 6 inches,  but in reality,  it's 14 feet. Parking lot is pretty small.  As for the room, it was not clean, found old napkins hiding around, the room looked and smelled so old,  holes in the wall,  just tore up. They put me on the fourth floor ... and the elevator was broken! Felt like i was on Big Bang Theory,  except i had to bring luggage up all those flights! Not good.  Even from the 4th floor,  it was loud.  I could hear horns honking,  car alarms going off,  street traffic. I'd wish i hadn't booked for 2 nights.  I'd pay more for a better place next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded February 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2018</t>
+  </si>
+  <si>
+    <t>I wouldn't suggest this place. I booked online as i usually do,  going by pictures and reviews.  For the price,  it seemed good so i booked. When i got there,  i noticed a strip club right in front of the property,  not good for a quiet night.  The place was dirty and people,  who looked homeless were hanging out,  in the lobby and outside. The awning says its 12 feet 6 inches,  but in reality,  it's 14 feet. Parking lot is pretty small.  As for the room, it was not clean, found old napkins hiding around, the room looked and smelled so old,  holes in the wall,  just tore up. They put me on the fourth floor ... and the elevator was broken! Felt like i was on Big Bang Theory,  except i had to bring luggage up all those flights! Not good.  Even from the 4th floor,  it was loud.  I could hear horns honking,  car alarms going off,  street traffic. I'd wish i hadn't booked for 2 nights.  I'd pay more for a better place next time. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r550763879-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>108151</t>
-  </si>
-  <si>
     <t>550763879</t>
   </si>
   <si>
@@ -177,9 +228,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>econolodgehoustontx, webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded January 4, 2018</t>
   </si>
   <si>
@@ -207,9 +255,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>econolodgehoustontx, webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded September 25, 2017</t>
   </si>
   <si>
@@ -246,6 +291,60 @@
     <t>Well priced motel near Houston Hobby Airport.  No frills. Had a problem when pipe burst in room next to mine.  I was on the job when it happened and hotel management moved me to another room.  Wi-fi was up and down but am finding that at a lot of the smaller hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r508469761-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508469761</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Enjoyed My Stay...</t>
+  </si>
+  <si>
+    <t>I went to Econo Lodge to get away for the night.The room was clean, comfortable and had all the amenities I needed for the night.  The night was peaceful,quiet which let me have a beautiful rested night.The pool was clean and refreshing.Breakfast was nice...Personal was very greeting... Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded August 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2017</t>
+  </si>
+  <si>
+    <t>I went to Econo Lodge to get away for the night.The room was clean, comfortable and had all the amenities I needed for the night.  The night was peaceful,quiet which let me have a beautiful rested night.The pool was clean and refreshing.Breakfast was nice...Personal was very greeting... Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r503695901-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503695901</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>needed another room the next night to get some sleep and gave it to me for same Priceline price</t>
+  </si>
+  <si>
+    <t>nice breakfast has the waffle machine which saved the day with kids and adults, I needed a room to get sleep was in for family funeral and was only functioning on about 4 or 5 hrs sleep in 3 days, they not only had another room available it was right down the hall from my other room which was convenient, they also gave it to me at the same rate has my priceline member pricingMoreShow less</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>nice breakfast has the waffle machine which saved the day with kids and adults, I needed a room to get sleep was in for family funeral and was only functioning on about 4 or 5 hrs sleep in 3 days, they not only had another room available it was right down the hall from my other room which was convenient, they also gave it to me at the same rate has my priceline member pricingMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r500416217-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,6 +420,57 @@
     <t>the first night there was noise in the middle of the night.  second night was quiet.  this is a good space, convenient location, rooms are rather dark, breakfast waffle &amp; coffee were tasty.i will stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r481905596-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481905596</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Terrible place, go somewhere else.</t>
+  </si>
+  <si>
+    <t>This 'hotel' is old, dirty, and is in dire need of a renovation.Staff was unfriendly and unhelpful.Room was damp and smelly.Bathtub was covered in mold, it was disgusting.The carpet was incredibly dirty.The remote didn't work. When to turn the TV manually and discovered it was the TV that was broken. Nobody went to fix it, neither were offered another room.The A/C unit is ancient and made so much noise we had to turn it off.'Breakfast' was a disappointment. There was cereal, old one dollar 'pastries' and terrible coffee.We had a connecting flight in Houston and it got delayed. We decided to spend the night in Houston since it was already past midnight. I booked this because the reviews said it was a decent and average place. IT IS NOT AVERAGE, IT IS HORRIBLE.Please save your money and look for another hotel. There are several near the airport. I tried saving 10-20 bucks and ended up in this horrible place.Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>This 'hotel' is old, dirty, and is in dire need of a renovation.Staff was unfriendly and unhelpful.Room was damp and smelly.Bathtub was covered in mold, it was disgusting.The carpet was incredibly dirty.The remote didn't work. When to turn the TV manually and discovered it was the TV that was broken. Nobody went to fix it, neither were offered another room.The A/C unit is ancient and made so much noise we had to turn it off.'Breakfast' was a disappointment. There was cereal, old one dollar 'pastries' and terrible coffee.We had a connecting flight in Houston and it got delayed. We decided to spend the night in Houston since it was already past midnight. I booked this because the reviews said it was a decent and average place. IT IS NOT AVERAGE, IT IS HORRIBLE.Please save your money and look for another hotel. There are several near the airport. I tried saving 10-20 bucks and ended up in this horrible place.Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r462242312-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462242312</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Decent room, good price</t>
+  </si>
+  <si>
+    <t>I stay here regularly while in Houston on business. The room is always clean, and surprisingly odor free for a smoking room. Staff is friendly and helpful. They were very apologetic when I advised that CBS was scrambled on the tv in my room, explaining that it was a dish problem and that a technician was scheduled to work on it. They also were gracious enough to not charge the extra day when I checked out a day earlier than expected, even though it was after the posted check-out time. The only down side is the bed is as hard as a rock!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>I stay here regularly while in Houston on business. The room is always clean, and surprisingly odor free for a smoking room. Staff is friendly and helpful. They were very apologetic when I advised that CBS was scrambled on the tv in my room, explaining that it was a dish problem and that a technician was scheduled to work on it. They also were gracious enough to not charge the extra day when I checked out a day earlier than expected, even though it was after the posted check-out time. The only down side is the bed is as hard as a rock!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r458798955-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -334,15 +484,6 @@
   </si>
   <si>
     <t>Property was a bit tired but clean.  Non-smoking room's bedspread had burn holes. Tub was clean but had large chips.  Area/parking lot was very high traffic &amp; noisy throughout the night.  Just slightly outside the 'nicer' area.  Convenient to the airport but if I had occasion to spend a night close to the airport again, I'd probably find a different Choice property.  Shuttle service is not available around the clock, if you need to get to the airport for a very late night or early morning flight you'll need to call a cab or Uber.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>econolodgehoustontx, Webmaster at Econo Lodge Houston Lobby, responded to this reviewResponded April 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded April 24, 2017</t>
   </si>
   <si>
     <t>Property was a bit tired but clean.  Non-smoking room's bedspread had burn holes. Tub was clean but had large chips.  Area/parking lot was very high traffic &amp; noisy throughout the night.  Just slightly outside the 'nicer' area.  Convenient to the airport but if I had occasion to spend a night close to the airport again, I'd probably find a different Choice property.  Shuttle service is not available around the clock, if you need to get to the airport for a very late night or early morning flight you'll need to call a cab or Uber.More</t>
@@ -402,6 +543,45 @@
 Room is nice, have no issues other than channel 21 has no sound. I usually watch Seinfeld to relax but even that doesn't work here. If you wwould like a miserable stay at a...It's a few days before the Presidential election and I had to rent a room before my trip to Atlanta where I will watch the results with my brother.  I reserve a room and was told that the only room avalible is second floor. I mentioned that my suitcase was fifty pounds and it would be a hardship to haul up stairs. Hotel is usually empty during the week, so I was surprised at ultimatum, no other room avalible?Didn't matter, if I wanted room at internet price, I had to rent upstairs. I had just gotten in from where I delivered a truck to Portland and I wasn't ready to go motel hunting again. Eight hours later, it is like ten O' clock PM and I see one car in parking lot. There has only been one car in lot for entire eveningI am sixty three years old, with bad knee, an irregular heart beat, and a history of high blood pressure. I was well groomed, dressed in clean clothes, but perhaps too casual for management, when I walked in lobby to rent. Suggest you not rent room if in shorts and tee shirt? Have no idea why this establishment is so obviously prejudiced?Room is nice, have no issues other than channel 21 has no sound. I usually watch Seinfeld to relax but even that doesn't work here. If you wwould like a miserable stay at a motel, perhaps you should give this place a stay?More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r434148554-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434148554</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>My stay was nice and peaceful and at a reasonable price. I felt very comfortable and at ease with my stay. The rooms are always nice and clean they have a very good cleaning service and I always have a very safe and goodnight sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay was nice and peaceful and at a reasonable price. I felt very comfortable and at ease with my stay. The rooms are always nice and clean they have a very good cleaning service and I always have a very safe and goodnight sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r428974516-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428974516</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>I was prese7nted with a room that did not have a place to hang my clothes, and smelled like mold. However I was presented with a second room that was more appropriate for staying over in the hotel. I was very disgusted at first with the initial room but was made to feel better with the second room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I was prese7nted with a room that did not have a place to hang my clothes, and smelled like mold. However I was presented with a second room that was more appropriate for staying over in the hotel. I was very disgusted at first with the initial room but was made to feel better with the second room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r383984178-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -439,9 +619,6 @@
   </si>
   <si>
     <t>May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>I will start with the good! The man who checked us in was excellent. He corrected an error on the booking and even found a room for us a couple of hours early. I truly appreciate his actions and commend him for that!The room we were on has fairly recently been remodeled. It was evident that the paint was new but the contractor got paint on the tub, the bathroom floor, and also missed some spots. The remodel did NOT include furniture. The desk, the TV stand, the table and even the headboard had scratches and chunks taken out. There was a replacement shelf in the bathroom that was just wood. No paint at all. The shower head was gross! It has never been cleaned! There is scum all over the jets. The back cover plate at the wall is very rusted. I wii attach photos of these things.Even though it was a cheaper price, I don't think I would ever stay here again. Just not a good feeling with this place. I have stayed at so many Choice Hotels, and I think it is safe to say this is the worst facility I have seen.More</t>
@@ -482,6 +659,45 @@
 When it was time for my shower (which I debated) the sounds...Not even sure where to begin...We entered the driveway and there's a steep incline that badly scraped the bottom of our new car.  There's no reason for it to be that steep. We only booked a room for this night to get a quick shower &amp; nap before an early flight.  So I thought 'why not use my choice points for a free stay?' The blankets on both beds were visibly DIRTY with cigarette burns on them (in a non smoking room) - don't even want to know what would show up under a black light.  The thinner blankets underneath those were also questionable.  We covered up only with sheets.All furniture was heavily coated with thick, greasy furniture polish.  Really gross!  I had to put towels on the table, desk &amp; dresser just to put our bags down.  Now lets talk about the shower.  When you turn the light on, the vent automatically comes on too.  It was L O U D!  Like, ridiculously LOUD.  My husband took his shower first and OMG the terrible sound that came out of that shower head resembled something you might see on a horror flick.  I even recorded video on my phone from outside the bathroom door b/c there's no way to explain how awful the sound is without audio proof.  Shower didn't look clean.  Bathroom floor wasn't clean.When it was time for my shower (which I debated) the sounds from both the vent AND shower head readily gave me a pounding headache.  I would have preferred getting on the plane dirty.Also, whatever procedure they use there to wash the bathroom linens needs to be looked at by the health department.  I had RASHES on my body from using their washrag.   HELLO.....RASHES!  (which isn't fun to deal with on vacation people!!!)I'm gonna guess they probably use the guest rags with the cleaning chemicals to "clean" the rooms.  And then, the linens don't get washed thoroughly enough.  No, I don't have overly sensitive skin, and nothing like this has ever happened to me before.  This incident is specific to this nasty hotel.I also noticed the mattresses moved a lot, even if barely bumped.  So I investigated.  There is no box-spring, only a thin crappy mattress sitting on a shoddy platform thing made of plywood &amp; painted.  I got to "nap" for an hour and my back was killing me.  Sleeping in our car would've been more comfortable.So, 4:30am comes and it's time to get to the airport.  I think "hmmm...coffee would be nice"  There was a cheapo mini Keurig knockoff available.  I tried to make a cup of coffee.  It was DIRTY.  There was coffee spilled all over the outside.  I wiped it down, desperate for some caffeine.  The water came out with big brown chunks.  WTH??!!  This place is so bad it should be shut down.  Seriously.  Someone from the Texas Health Department would have their work cut out for them upon a visitation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r329256126-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329256126</t>
+  </si>
+  <si>
+    <t>11/26/2015</t>
+  </si>
+  <si>
+    <t>Near airport...</t>
+  </si>
+  <si>
+    <t>The room was adequate for the $$. The big issue I had was the odor of some kind of cleanser/disinfectant. Even after I aired the room out a bit, it was still bothering me. I even smelled it in the shuttle van. The breakfast offered was meager, with no fruit. The shuttle van was very limited as to times it was available. No issues with the staff. Stayed November 2015MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>The room was adequate for the $$. The big issue I had was the odor of some kind of cleanser/disinfectant. Even after I aired the room out a bit, it was still bothering me. I even smelled it in the shuttle van. The breakfast offered was meager, with no fruit. The shuttle van was very limited as to times it was available. No issues with the staff. Stayed November 2015More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r325926154-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325926154</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>The bullet hole in the lobby window was a nice touch</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Econo lodge Hobby airport for one night while heading to Costa Rica. The location was very convient to the airport but shuttle stopped at 7pm. Of course we arrived after 7 pm so had to a taxi to the hotel. The price of the hotel was reasonable until you add in the cost of the transportation.Room smelled of strong cleaner and had to be aired out for two hours. That meant opening the door at a hotel with a large caliber hole in the lobby window! (At least they tried to cover the hole with a travel brochure rack).The continental breakfast was standard waffle maker and two selections of cereals. Good coffee!We had planned to stay there on the return trip but are looking for alternate locations.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at the Econo lodge Hobby airport for one night while heading to Costa Rica. The location was very convient to the airport but shuttle stopped at 7pm. Of course we arrived after 7 pm so had to a taxi to the hotel. The price of the hotel was reasonable until you add in the cost of the transportation.Room smelled of strong cleaner and had to be aired out for two hours. That meant opening the door at a hotel with a large caliber hole in the lobby window! (At least they tried to cover the hole with a travel brochure rack).The continental breakfast was standard waffle maker and two selections of cereals. Good coffee!We had planned to stay there on the return trip but are looking for alternate locations.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r311792902-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -539,6 +755,39 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r256371089-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256371089</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Nice Staff</t>
+  </si>
+  <si>
+    <t>OK for short stay. Not much around as far as restaurants, but there is a Denny's about two blocks away. Staff went out of their way to pick us up at Hobby after shuttle hours, and also taking us back in morning to Super Shuttle area for our trip to Bayport Cruise Terminal.Room was clean and quiet, bathroom looks recently remodeled.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r255776584-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255776584</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>We flew in to Houston Hobby and then spent one night here. They picked us up at airport....which was great..and free! The room was nice and bed was comfortable. The breakfast had waffles, cereals, oatmeal, etc.  That worked for us. They then shuttled us back to the airport.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r226727398-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -596,6 +845,48 @@
     <t>When my 11 year old walks in the room, and the first thing they ask is "Does this place have housekeeping?", you know the place is nasty.  The shower was filthy, the carpets were sticky when we walked on them in our bare feet, and the bedspread and linens had cigarette burns in them.....and it was a non smoking room.  We just needed a place to lay our heads for the night, and we just slept, then got up, took a shower with our flip flops on because of the nasty shower, and then left.  I booked this motel because the reviews were so good, but I think the positive reviews are made up.  The motel is just by the airport, which is nice.  If you want a clean and comfortable place to stay, spend a few more dollars.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r187731688-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187731688</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I am in Houston frequently, and I'm usually by myself on my motorcycle.  I got tired of staying in my usual place due to the bad neighborhood it was in, so I started looking around Hobby Airport as that is handy to where I need to be.I was pleasantly surprised.  The room, while not brand new, was very clean, the bathroom sparkling and everything worked fine - bed was very comfortable too.  One thing I liked in particular was the fenced and well lit parking area where I could chain my motorcycle and not worry about it.  My Internet connection was strong and fast.I didn't rate the breakfast simply because I had other breakfast plans, but I'll be back because the price is right and the place is very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I am in Houston frequently, and I'm usually by myself on my motorcycle.  I got tired of staying in my usual place due to the bad neighborhood it was in, so I started looking around Hobby Airport as that is handy to where I need to be.I was pleasantly surprised.  The room, while not brand new, was very clean, the bathroom sparkling and everything worked fine - bed was very comfortable too.  One thing I liked in particular was the fenced and well lit parking area where I could chain my motorcycle and not worry about it.  My Internet connection was strong and fast.I didn't rate the breakfast simply because I had other breakfast plans, but I'll be back because the price is right and the place is very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r178304014-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178304014</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Great Location/Good Prices/Cordial Staff</t>
+  </si>
+  <si>
+    <t>We had to come to Houston on business and wanted to stay in a hotel that was convenient to the Interstate and Hobby Airport. Our flight was early morning and we did not want to have to fight Houston's traffic. This hotel is very near Interstate 45 and abouta mile from the airport. Noise? Not a sound was heard in the room and even the outside was quiet. When we left to go to the airport, it was so convenient.The room was clean and large for a hotel room. In the room we had a refrigerator with a freezer and a microwave. The beds were comfortable providing for a good night's sleep. The continental breakfact consisted of a variety of pastries and a make your own waffle (shaped like Texas and simply delicious!). The staff was cordial and provided any assistance needed. When you walked in the door, they were immediately at the counter. When I had problem with printing my boarding pass, they provided instant assistance.Would I stay again? I  would and will. When you compare price and the accommodations, I certainly was pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>We had to come to Houston on business and wanted to stay in a hotel that was convenient to the Interstate and Hobby Airport. Our flight was early morning and we did not want to have to fight Houston's traffic. This hotel is very near Interstate 45 and abouta mile from the airport. Noise? Not a sound was heard in the room and even the outside was quiet. When we left to go to the airport, it was so convenient.The room was clean and large for a hotel room. In the room we had a refrigerator with a freezer and a microwave. The beds were comfortable providing for a good night's sleep. The continental breakfact consisted of a variety of pastries and a make your own waffle (shaped like Texas and simply delicious!). The staff was cordial and provided any assistance needed. When you walked in the door, they were immediately at the counter. When I had problem with printing my boarding pass, they provided instant assistance.Would I stay again? I  would and will. When you compare price and the accommodations, I certainly was pleased.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r175899729-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
   </si>
   <si>
@@ -645,6 +936,45 @@
   </si>
   <si>
     <t xml:space="preserve">I have low expectations when I have to stay in the Econo Lodge brand of Choice Hotels. I was pleasantly surprised by this property. Great value and great location if your headed out oh Hobby. The only disappointment was the breakfast set-up. Poor slections and bad presentation. Would it kill the franchise to put out equal or Splenda? </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r127740846-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127740846</t>
+  </si>
+  <si>
+    <t>04/12/2012</t>
+  </si>
+  <si>
+    <t>Just the basics</t>
+  </si>
+  <si>
+    <t>Needed a place to stay for a short night before catching an early morning plane and this place was just what I needed. Comfortable, clean and quiet enough for a good sleep. Would not recommend this place for more than a place to sleep though. My only complaint was that they gave only 2 pillows for a King Size Bed, although when I went and asked for more, it was not an issue and they gave me a couple extra.Got up too early to try the breakfast.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108151-r106498668-Econo_Lodge_Houston_Lobby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>106498668</t>
+  </si>
+  <si>
+    <t>05/02/2011</t>
+  </si>
+  <si>
+    <t>Best value for money I've seen</t>
+  </si>
+  <si>
+    <t>For $44.99/night, I got a large clean room in a motel convenient to Hobby Airport with a swimming pool, hot tub, free "continental" breakfast, free Internet and good housekeeping service.  The grounds were in good shape, as was the structure of the motel.  Hot water was plentiful and towels were large and absorbent.  Noise from Airport Blvd was barely audible in the room.  There was an ample selection of TV channels.  The only real pick I have is that there was no comfortable armchair in the room (although there was plenty of space for one).  No bugs were evident, which for Houston with its muggy semitropical climate is close to being a miracle.  All in all, among bargain lodgings, this was as close to being as good as it gets as I've seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>For $44.99/night, I got a large clean room in a motel convenient to Hobby Airport with a swimming pool, hot tub, free "continental" breakfast, free Internet and good housekeeping service.  The grounds were in good shape, as was the structure of the motel.  Hot water was plentiful and towels were large and absorbent.  Noise from Airport Blvd was barely audible in the room.  There was an ample selection of TV channels.  The only real pick I have is that there was no comfortable armchair in the room (although there was plenty of space for one).  No bugs were evident, which for Houston with its muggy semitropical climate is close to being a miracle.  All in all, among bargain lodgings, this was as close to being as good as it gets as I've seen.More</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1509,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1187,29 +1517,23 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1225,7 +1549,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1234,47 +1558,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1290,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1299,47 +1619,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
       <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -1355,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1364,49 +1686,47 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1422,7 +1742,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1431,39 +1751,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1479,7 +1807,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1488,33 +1816,33 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>96</v>
       </c>
-      <c r="K7" t="s">
+      <c r="O7" t="s">
         <v>97</v>
       </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" t="s">
-        <v>99</v>
-      </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1524,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
         <v>100</v>
@@ -1567,31 +1895,35 @@
         <v>105</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
         <v>107</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -1607,7 +1939,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1616,31 +1948,31 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>114</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>115</v>
       </c>
-      <c r="O9" t="s">
-        <v>99</v>
-      </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="n">
         <v>5</v>
       </c>
@@ -1652,13 +1984,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -1674,7 +2006,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1683,47 +2015,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" t="s">
-        <v>99</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -1739,7 +2063,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1748,49 +2072,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -1806,7 +2130,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1815,43 +2139,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="X12" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -1867,7 +2197,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1876,49 +2206,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>1</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -1934,7 +2262,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1943,25 +2271,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" t="s">
-        <v>149</v>
-      </c>
-      <c r="L14" t="s">
-        <v>150</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>151</v>
-      </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1972,10 +2300,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
@@ -1991,7 +2323,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2000,43 +2332,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -2052,7 +2390,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2061,43 +2399,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2113,7 +2455,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2122,43 +2464,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>169</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>170</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
@@ -2174,7 +2516,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2183,49 +2525,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>148</v>
+      </c>
+      <c r="X18" t="s">
+        <v>149</v>
+      </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -2241,7 +2577,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2250,49 +2586,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>148</v>
+      </c>
+      <c r="X19" t="s">
+        <v>149</v>
+      </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2308,7 +2644,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2317,49 +2653,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>137</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>148</v>
+      </c>
+      <c r="X20" t="s">
+        <v>149</v>
+      </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -2375,7 +2705,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2384,49 +2714,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>148</v>
+      </c>
+      <c r="X21" t="s">
+        <v>149</v>
+      </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
@@ -2442,7 +2772,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2451,33 +2781,31 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2486,10 +2814,1038 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X22" t="s">
+        <v>149</v>
+      </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>248</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>249</v>
+      </c>
+      <c r="J29" t="s">
+        <v>250</v>
+      </c>
+      <c r="K29" t="s">
+        <v>251</v>
+      </c>
+      <c r="L29" t="s">
+        <v>252</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>132</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>292</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>294</v>
+      </c>
+      <c r="J36" t="s">
+        <v>295</v>
+      </c>
+      <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
+        <v>297</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>298</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>299</v>
+      </c>
+      <c r="J37" t="s">
+        <v>300</v>
+      </c>
+      <c r="K37" t="s">
+        <v>301</v>
+      </c>
+      <c r="L37" t="s">
+        <v>302</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>303</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33278</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>132</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
